--- a/src/ExcelsiorAspose.Tests/HtmlTests.LongText.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/HtmlTests.LongText.verified.xlsx
@@ -471,7 +471,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="50.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:2" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
